--- a/QA/testcases/LLS/Provider/009_L_Prov_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/LLS/Provider/009_L_Prov_Patient_App_Create_Provider.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360">
   <si>
     <t>Step No</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>LLS_APP_HISPANIC_LATINO</t>
-  </si>
-  <si>
-    <t>Are you residing in the United States or a United States territory?</t>
   </si>
   <si>
     <t>NEXT_BUTTON</t>
@@ -2304,10 +2301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2914,7 +2911,7 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="11">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -2938,7 +2935,7 @@
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2962,7 +2959,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -2983,885 +2980,883 @@
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
+      <c r="C32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="12"/>
+      <c r="B33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10">
+        <v>10</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10">
-        <v>10</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="10"/>
+      <c r="B34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="11">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="11">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="12" t="s">
+      <c r="C37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="E37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="B38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="E38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="E39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="11">
+      <c r="D41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11">
-        <v>42</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="17"/>
+      <c r="D43" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H44" s="9"/>
+      <c r="B44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12">
+        <v>10</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12">
-        <v>10</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="17"/>
+      <c r="B45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="B46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10">
+        <v>10</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="11">
-        <v>46</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="12" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10">
-        <v>10</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="11">
-        <v>48</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" s="17"/>
+      <c r="E49" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="D50" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="9"/>
+      <c r="E50" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F51" s="12" t="s">
+      <c r="B51" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="17"/>
+      <c r="E51" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="11">
-        <v>52</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" s="17"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="9"/>
+      <c r="D54" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="11">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H55" s="17"/>
+      <c r="B55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10">
+        <v>10</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10">
-        <v>10</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="9"/>
+      <c r="B56" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H57" s="17"/>
+      <c r="B57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="10">
+        <v>5</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="10">
-        <v>5</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="9"/>
+      <c r="B58" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="11">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H59" s="17"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="8">
-        <v>59</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="C60" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E60" s="10">
         <v>1</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H60" s="9"/>
+      <c r="F60" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="11">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E61" s="10">
-        <v>1</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H61" s="17"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G62" s="10" t="s">
+      <c r="D62" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" s="12" t="s">
+      <c r="B63" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H63" s="17"/>
+      <c r="E63" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="10" t="s">
+      <c r="B64" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="9"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="11">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="15" t="s">
+      <c r="C65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="17"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="8">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="9"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="11">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G67" s="12" t="s">
+      <c r="C67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H67" s="17"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="C68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="9"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="17"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" s="10" t="s">
+      <c r="C70" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10">
+        <v>10</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="11">
-        <v>70</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" s="17"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="8">
-        <v>71</v>
-      </c>
-      <c r="B72" s="10" t="s">
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10">
-        <v>10</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="10" t="s">
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10">
+        <v>4</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="11">
-        <v>72</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H73" s="10"/>
     </row>
@@ -3870,18 +3865,18 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10">
-        <v>4</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="10" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="H74" s="10"/>
     </row>
@@ -3889,97 +3884,99 @@
       <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10" t="s">
-        <v>166</v>
-      </c>
+      <c r="B75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12">
+        <v>5</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12">
-        <v>5</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="11">
-        <v>76</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="12">
+        <v>2</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="G77" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="8">
-        <v>77</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="12">
-        <v>2</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="E78" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="11">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F79" s="10" t="s">
+      <c r="B79" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G79" s="10" t="s">
-        <v>103</v>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H79" s="10"/>
     </row>
@@ -3993,15 +3990,15 @@
       <c r="C80" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="19" t="s">
         <v>176</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="H80" s="10"/>
     </row>
@@ -4009,21 +4006,21 @@
       <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" s="12" t="s">
+      <c r="B81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12" t="s">
+      <c r="D81" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G81" s="12" t="s">
-        <v>161</v>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="H81" s="10"/>
     </row>
@@ -4031,76 +4028,76 @@
       <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12">
+        <v>5</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G82" s="10" t="s">
+      <c r="C83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="11">
-        <v>82</v>
-      </c>
-      <c r="B83" s="12" t="s">
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12">
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10">
         <v>5</v>
       </c>
-      <c r="F83" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="8">
-        <v>83</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="11">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10">
-        <v>5</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8">
@@ -4118,10 +4115,10 @@
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H86" s="10"/>
     </row>
@@ -4130,7 +4127,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>18</v>
@@ -4140,10 +4137,10 @@
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="H87" s="10"/>
     </row>
@@ -4151,30 +4148,30 @@
       <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>130</v>
+      <c r="B88" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="11">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>62</v>
+      <c r="B89" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>18</v>
@@ -4184,37 +4181,37 @@
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="8">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="11">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
@@ -4224,11 +4221,11 @@
         <v>18</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>34</v>
@@ -4246,11 +4243,11 @@
         <v>18</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>34</v>
@@ -4262,20 +4259,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" s="10"/>
+      <c r="D93" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="F93" s="10" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="H93" s="10"/>
     </row>
@@ -4284,82 +4283,78 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>196</v>
+      <c r="D94" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="11">
+      <c r="A95" s="8">
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G95" s="10" t="s">
         <v>202</v>
       </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="8">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E96" s="10"/>
+      <c r="E96" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="11">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E97" s="20" t="s">
         <v>205</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
@@ -4373,13 +4368,13 @@
         <v>45</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>207</v>
+        <v>56</v>
+      </c>
+      <c r="E98" s="10">
+        <v>10001</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -4396,10 +4391,10 @@
         <v>23</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="E99" s="10">
-        <v>10001</v>
+        <v>9789045678</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
@@ -4419,14 +4414,14 @@
         <v>208</v>
       </c>
       <c r="E100" s="10">
-        <v>9789045678</v>
+        <v>21331</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="11">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
@@ -4439,18 +4434,18 @@
         <v>209</v>
       </c>
       <c r="E101" s="10">
-        <v>21331</v>
+        <v>97989898982</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="8">
+      <c r="A102" s="11">
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>23</v>
@@ -4458,15 +4453,15 @@
       <c r="D102" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="E102" s="10">
-        <v>97989898982</v>
+      <c r="E102" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="11">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
@@ -4476,10 +4471,10 @@
         <v>23</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -4496,10 +4491,10 @@
         <v>23</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -4510,7 +4505,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>23</v>
@@ -4518,9 +4513,7 @@
       <c r="D105" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>212</v>
-      </c>
+      <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
@@ -4530,591 +4523,573 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E106" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10">
+        <v>2</v>
+      </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="11">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="8">
+        <v>108</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10">
-        <v>2</v>
-      </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="8">
-        <v>107</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="17"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="11">
-        <v>108</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H109" s="9"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12">
+        <v>10</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="17"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12">
-        <v>10</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="17"/>
+      <c r="B110" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="11">
         <v>110</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="H111" s="9"/>
+      <c r="B111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12">
+        <v>5</v>
+      </c>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8">
         <v>111</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12">
-        <v>5</v>
-      </c>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="17"/>
+      <c r="B112" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="11">
+      <c r="A113" s="8">
         <v>112</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G113" s="10" t="s">
+      <c r="B113" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="H113" s="9"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="8">
+      <c r="A114" s="11">
         <v>113</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" s="12" t="s">
+      <c r="C114" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12" t="s">
+      <c r="G114" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G114" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="H114" s="17"/>
+      <c r="H114" s="9"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="11">
+      <c r="A115" s="8">
         <v>114</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115" s="10" t="s">
+      <c r="C115" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="H115" s="9"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="8">
         <v>115</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D116" s="12" t="s">
+      <c r="C116" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="17"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="11">
         <v>116</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="13" t="s">
+      <c r="B117" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="9"/>
+      <c r="E117" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="8">
         <v>117</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10">
+        <v>5</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="9"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="11">
+        <v>119</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H118" s="17"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="11">
-        <v>118</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10">
-        <v>5</v>
-      </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="9"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="8">
-        <v>119</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="G120" s="12" t="s">
+      <c r="C120" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H120" s="17"/>
+      <c r="E120" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H120" s="9"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="11">
+      <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G121" s="10" t="s">
+      <c r="D121" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="H121" s="9"/>
+      <c r="E121" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="8">
         <v>121</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C122" s="12" t="s">
+      <c r="B122" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D122" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="H122" s="17"/>
+      <c r="D122" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="11">
         <v>122</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H123" s="9"/>
+      <c r="B123" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12">
+        <v>10</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="17"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="8">
         <v>123</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H124" s="9"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12">
-        <v>10</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="17"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="11">
-        <v>124</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G125" s="10" t="s">
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12">
+        <v>2</v>
+      </c>
+      <c r="F125" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="H125" s="9"/>
+      <c r="G125" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H125" s="17"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="11">
         <v>125</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12">
-        <v>2</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G126" s="12" t="s">
+      <c r="B126" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H126" s="17"/>
+      <c r="C126" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="H126" s="9"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G127" s="10" t="s">
+      <c r="B127" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12">
+        <v>2</v>
+      </c>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="17"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="8">
+        <v>127</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="H127" s="9"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="11">
-        <v>127</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12">
-        <v>2</v>
-      </c>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="17"/>
+      <c r="E128" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H128" s="9"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="11">
         <v>128</v>
       </c>
-      <c r="B129" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C129" s="21" t="s">
+      <c r="B129" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D129" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="E129" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="F129" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="G129" s="21" t="s">
+      <c r="D129" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="H129" s="9"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H129" s="17"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="8">
         <v>129</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="10">
+        <v>10</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="9"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="8">
+        <v>130</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G130" s="12" t="s">
+      <c r="C131" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H130" s="17"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="11">
-        <v>130</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="10">
-        <v>10</v>
-      </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="9"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H131" s="17"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="11">
         <v>131</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="H132" s="17"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="8">
-        <v>132</v>
-      </c>
-      <c r="B133" s="10" t="s">
+      <c r="B132" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10">
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10">
         <v>5</v>
       </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="9"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B53 B54 B55 B56 B62 B63 B64 B65 B66 B67 B70 B118 B119 B128 B130 B131 B132 B133 B14:B20 B21:B29 B31:B39 B40:B45 B49:B52 B57:B59 B68:B69 B71:B72 B108:B115 B116:B117 B120:B124 B125:B126 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B31 B45 B46 B47 B52 B53 B54 B55 B61 B62 B63 B64 B65 B66 B69 B117 B118 B127 B129 B130 B131 B132 B14:B20 B21:B29 B32:B38 B39:B44 B48:B51 B56:B58 B67:B68 B70:B71 B107:B114 B115:B116 B119:B123 B124:B125 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C86 B95 C95 B4:B12 B73:B94 B96:B107 C7:C9 C73:C74 C84:C85 C87:C90 C91:C94 C96:C101 C102:C107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C85 B94 C94 B4:B12 B72:B93 B95:B106 C7:C9 C72:C73 C83:C84 C86:C89 C90:C93 C95:C100 C101:C106">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C44 C47 C55 C109 C26:C29 C31:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C31 C32 C43 C46 C54 C108 C26:C29">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C70">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B129 C129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128 C128">
       <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:B61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:B60">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B133:B1048576">
       <formula1>DataList!$C$2:$C$129</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C134:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C133:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -5145,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5153,20 +5128,20 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5177,20 +5152,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
         <v>267</v>
-      </c>
-      <c r="C6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -5198,47 +5173,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" t="s">
         <v>270</v>
-      </c>
-      <c r="C8" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" t="s">
         <v>276</v>
-      </c>
-      <c r="C11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5248,12 +5223,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5263,55 +5238,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5321,364 +5296,364 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5688,7 +5663,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
